--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286547.12989004</v>
+        <v>2284003.320382957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>104.1383913127195</v>
+        <v>259.632696771575</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>166.6190863461558</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842815</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.98735628479115</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>60.9676003338656</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.1134241603919</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868275</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>242.856330159867</v>
       </c>
       <c r="X6" t="n">
-        <v>10.1845637256568</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
-        <v>117.5787085629924</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>80.23065984624711</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465074</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348409</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.8244010340206</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908761</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059661028</v>
+        <v>20.2497997611523</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>51.28528680871855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247906987</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754296</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.5284434523311</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.7871326503985</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.52079624060465</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>56.49518623012991</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>76.95889114479641</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2875691835748</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835748</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835748</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163967</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>949.6652257507528</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>949.6652257507528</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>683.2875691835748</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2875691835748</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.3992178204799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
         <v>21.0971104001205</v>
@@ -4407,25 +4407,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699348</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742824</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460808</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>357.614554840548</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.614554840548</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551012</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165363</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745506</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>356.2217926073725</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>356.2217926073725</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>89.84413604019448</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.84413604019448</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0438072739749</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067969</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D5" t="n">
-        <v>41.28849413961882</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>41.28849413961882</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F5" t="n">
-        <v>34.34299339041534</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
         <v>21.0971104001205</v>
@@ -4565,22 +4565,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>840.421463841153</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>840.421463841153</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W5" t="n">
-        <v>840.421463841153</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="X5" t="n">
-        <v>840.421463841153</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.421463841153</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4647,49 +4647,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304913</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>474.2580350095594</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606.8293986086072</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>437.8932156807003</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>287.7765762683646</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>139.8634826859715</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>139.8634826859715</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075547</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>788.477863438847</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>788.477863438847</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>788.477863438847</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>932.8564301909967</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>563.893913250585</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>205.6282146438345</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>205.6282146438345</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>198.682713894631</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428663</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428663</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685543</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467157</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607396</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045888</v>
+        <v>795.1862829045945</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995221</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209577</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940587</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550188</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661152</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342772</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762124</v>
+        <v>2435.830015762142</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762124</v>
+        <v>2227.077931858415</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762124</v>
+        <v>2227.077931858415</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762124</v>
+        <v>2227.077931858415</v>
       </c>
       <c r="W8" t="n">
-        <v>2083.06136049201</v>
+        <v>1874.3092765883</v>
       </c>
       <c r="X8" t="n">
-        <v>1709.59560223093</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1319.456270255118</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010659</v>
+        <v>929.5097208010836</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199389</v>
+        <v>755.0566915199566</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586876</v>
+        <v>606.1222818587054</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532321</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801171</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763053</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444157</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685543</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963718</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148164</v>
+        <v>559.9063389572714</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665002</v>
+        <v>854.4423223907531</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.0721441408</v>
+        <v>1217.508790865055</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613368</v>
+        <v>1851.248074049895</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600756</v>
+        <v>2183.134884037285</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030379</v>
+        <v>2430.17024246691</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442614</v>
+        <v>2545.387641020655</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342772</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251687</v>
+        <v>2424.826280251704</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685335</v>
+        <v>2230.816477685353</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751565</v>
+        <v>2002.726321751583</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519822</v>
+        <v>1767.57421351984</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791621</v>
+        <v>1513.336856791638</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586088</v>
+        <v>1305.485356586106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821134</v>
+        <v>1097.725057821152</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686106</v>
+        <v>367.037385632673</v>
       </c>
       <c r="C10" t="n">
-        <v>664.118060559804</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474682</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650751</v>
+        <v>198.1012027047661</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671647</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685543</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685543</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685543</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380094</v>
+        <v>76.63468308380172</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676557</v>
+        <v>248.2500215676572</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368902</v>
+        <v>523.3850043368926</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904011</v>
+        <v>823.8653899904044</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101609</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931087</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1336.515802634456</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1113.534501108861</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477359</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477359</v>
+        <v>838.1030204998733</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440398</v>
+        <v>548.6858504629128</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.36242454238</v>
+        <v>548.6858504629128</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988504</v>
+        <v>548.6858504629128</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703092</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703092</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458822</v>
+        <v>545.3854261579735</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>397.4723325755804</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6227,22 +6227,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6254,10 +6254,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>215.8238677453442</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>215.8238677453442</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>639.6425904082687</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2322.851535155764</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2103.250070178706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1814.174843522904</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1559.490355317017</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1270.073185280056</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1042.083634382039</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.2910552385084</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6707,40 +6707,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908938</v>
@@ -6850,10 +6850,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,28 +6953,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1028.490320362746</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>859.5541374348388</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>709.4374980225031</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.931364336515</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.138785192985</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7436,22 +7436,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,46 +7640,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.3728896106911</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415548</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.26288739959449</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>294.3272100183875</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538086</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917579</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538829</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>32.89260457060011</v>
+        <v>125.505489761042</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>44.7370056418703</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>124.5310997715147</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>69.47507150177276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333086</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>842706.5517672511</v>
+        <v>842706.5517672512</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580759</v>
+        <v>390680.0076580803</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606961</v>
+        <v>507909.232060692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911433</v>
+        <v>68999.15441911432</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101683</v>
+        <v>95270.23779101802</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954698</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447219</v>
+        <v>141668.8507447207</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,10 +26430,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26445,19 +26445,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680578</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.97621680578</v>
+      </c>
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="N4" t="n">
-        <v>11776.97621680584</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680587</v>
-      </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567874</v>
+        <v>92902.86757567908</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-379476.5216604245</v>
+        <v>-379476.5216604248</v>
       </c>
       <c r="C6" t="n">
         <v>300611.4589307685</v>
       </c>
       <c r="D6" t="n">
-        <v>-9470.398580264096</v>
+        <v>-9470.398580267603</v>
       </c>
       <c r="E6" t="n">
-        <v>-15448.7883339047</v>
+        <v>-15483.52625933643</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267915</v>
+        <v>492425.7058013557</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267911</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267911</v>
+        <v>492425.7058013559</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013554</v>
       </c>
       <c r="J6" t="n">
-        <v>423461.2893076769</v>
+        <v>423426.5513822414</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="L6" t="n">
-        <v>397190.2059357745</v>
+        <v>397155.4680103376</v>
       </c>
       <c r="M6" t="n">
-        <v>359742.4680313214</v>
+        <v>359707.7301058871</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="O6" t="n">
-        <v>492460.4437267915</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.443726791</v>
+        <v>492425.705801356</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>614.0550137694784</v>
+      </c>
+      <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
-      <c r="C3" t="n">
-        <v>614.0550137694784</v>
-      </c>
       <c r="D3" t="n">
-        <v>933.7024595627804</v>
+        <v>933.7024595627838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856929</v>
+        <v>640.1406900856972</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793302</v>
+        <v>319.6474457933056</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788933</v>
+        <v>434.2730407788899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841866</v>
+        <v>376.426810084191</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139555</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841864</v>
+        <v>376.4268100841912</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139555</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841866</v>
+        <v>376.426810084191</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139555</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>223.6138671574154</v>
+        <v>68.11956169855989</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.089412642159914</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788762</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>99.39480305106564</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>225.2910301688119</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>399.7207504853181</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.9509865514522</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>8.838653001052649</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778207</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
-        <v>49.30495847555413</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>331.3184999420024</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444484</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.77644916452482</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164542282</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>115.9615342899093</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.6876672912345</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.105823316955884e-14</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885546</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546661</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157552</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972524</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763177</v>
+        <v>477.4691627763195</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354914</v>
+        <v>592.3427171354936</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359921</v>
+        <v>659.0954050359946</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525058</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307877</v>
+        <v>632.4356192307899</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983006</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542119</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864744</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140448</v>
+        <v>85.5346524514048</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944149</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508437</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436924</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035135</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026252</v>
+        <v>69.14683309026277</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107942</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502159</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571269</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617153</v>
+        <v>508.8678404617171</v>
       </c>
       <c r="N9" t="n">
-        <v>522.33605801522</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451907</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947579</v>
+        <v>383.5050724947593</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463695</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204785</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366389</v>
+        <v>37.30405581366403</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133913</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752555</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415866</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954056</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772513</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490117</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023118</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462343</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046248</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708725</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939798</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307394</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658769</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942731</v>
+        <v>7.194100917942758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650309</v>
+        <v>0.09183958618650342</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127284</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043501</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333354</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705662</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313372</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655042</v>
+        <v>356.5763021655063</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087194</v>
+        <v>428.7491718087219</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559149</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091009</v>
+        <v>402.3374078091032</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430311</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797624</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2001390723423</v>
+        <v>20.20013907234315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127534</v>
+        <v>62.90656844127605</v>
       </c>
       <c r="K9" t="n">
-        <v>186.461612475857</v>
+        <v>450.9268494884367</v>
       </c>
       <c r="L9" t="n">
-        <v>591.8383043956402</v>
+        <v>297.5110943772543</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539697</v>
+        <v>366.7338065396988</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318868</v>
+        <v>640.1406900856972</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074626</v>
+        <v>335.2392020074644</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804276</v>
+        <v>249.5306650804291</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961971</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783541</v>
+        <v>15.32840335569083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873283</v>
+        <v>25.68023017873327</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513684</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093278</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641524</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254629</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186645</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035766</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228544</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,7 +36689,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,7 +36926,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
